--- a/attendance/attendance.xlsx
+++ b/attendance/attendance.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\September on going\考勤截图\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangzhang/vsCodeProject/contruct_xlsx/attendance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625722B8-CA7E-4DDA-A39A-89C6D0E21077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FA1EB1-1B60-D34E-AF4D-B34DFC8A68BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="第一医院" sheetId="1" r:id="rId1"/>
+    <sheet name="大医院" sheetId="1" r:id="rId1"/>
     <sheet name="中医院" sheetId="2" r:id="rId2"/>
     <sheet name="慕田峪" sheetId="3" r:id="rId3"/>
     <sheet name="范崎路" sheetId="4" r:id="rId4"/>
@@ -328,7 +328,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -648,16 +648,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="9" width="11.375" customWidth="1"/>
+    <col min="6" max="9" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>8</v>
       </c>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>9</v>
       </c>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>10</v>
       </c>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1313,9 +1313,9 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1622,9 +1622,9 @@
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1898,16 +1898,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E74ABF-3D62-4267-8F2A-F98D59CAE123}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="10" max="10" width="36.125" customWidth="1"/>
+    <col min="10" max="10" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2573,9 +2573,9 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>

--- a/attendance/attendance.xlsx
+++ b/attendance/attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangzhang/vsCodeProject/contruct_xlsx/attendance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FA1EB1-1B60-D34E-AF4D-B34DFC8A68BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578B3B06-CD50-4F45-A458-D10F229DEC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="大医院" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="78">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,10 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>赵春江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,10 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>马仕海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>温瑞军</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,10 +223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>戴振彪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>于连武</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -321,6 +309,14 @@
   </si>
   <si>
     <t>车补</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马士海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵春红</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -680,10 +676,10 @@
         <v>32</v>
       </c>
       <c r="H1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
@@ -1216,7 +1212,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="C20">
         <v>27</v>
@@ -1245,7 +1241,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C21">
         <v>27</v>
@@ -1274,7 +1270,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C22">
         <v>27</v>
@@ -1307,10 +1303,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37C97C5-30D8-4B13-B965-EE7C945749B4}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1338,10 +1334,10 @@
         <v>32</v>
       </c>
       <c r="H1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
@@ -1555,13 +1551,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9">
         <v>27</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1576,35 +1572,6 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10">
-        <v>27</v>
-      </c>
-      <c r="D10">
-        <v>16</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
         <v>0</v>
       </c>
     </row>
@@ -1618,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD050704-83B8-49E8-9E11-7733F4B5A3A1}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1647,10 +1614,10 @@
         <v>32</v>
       </c>
       <c r="H1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
@@ -1864,7 +1831,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="C9">
         <v>27</v>
@@ -1930,10 +1897,10 @@
         <v>32</v>
       </c>
       <c r="H1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
@@ -1944,7 +1911,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C2">
         <v>27</v>
@@ -1970,7 +1937,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C3">
         <v>27</v>
@@ -1996,7 +1963,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C4">
         <v>29</v>
@@ -2022,7 +1989,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C5">
         <v>29</v>
@@ -2046,7 +2013,7 @@
         <v>200</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2054,7 +2021,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C6">
         <v>29</v>
@@ -2080,7 +2047,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C7">
         <v>29</v>
@@ -2101,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2109,7 +2076,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C8">
         <v>29</v>
@@ -2135,7 +2102,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C9">
         <v>29</v>
@@ -2161,7 +2128,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C10">
         <v>29</v>
@@ -2187,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C11">
         <v>29</v>
@@ -2213,7 +2180,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C12">
         <v>29</v>
@@ -2239,7 +2206,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C13">
         <v>29</v>
@@ -2265,7 +2232,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C14">
         <v>29</v>
@@ -2289,7 +2256,7 @@
         <v>780</v>
       </c>
       <c r="J14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2297,7 +2264,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C15">
         <v>29</v>
@@ -2323,7 +2290,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C16">
         <v>29</v>
@@ -2347,7 +2314,7 @@
         <v>200</v>
       </c>
       <c r="J16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2355,7 +2322,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C17">
         <v>29</v>
@@ -2381,7 +2348,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C18">
         <v>29</v>
@@ -2407,7 +2374,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C19">
         <v>29</v>
@@ -2433,7 +2400,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C20">
         <v>29</v>
@@ -2459,7 +2426,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C21">
         <v>29</v>
@@ -2485,7 +2452,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C22">
         <v>29</v>
@@ -2511,7 +2478,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C23">
         <v>29</v>
@@ -2537,7 +2504,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C24">
         <v>29</v>
@@ -2598,10 +2565,10 @@
         <v>32</v>
       </c>
       <c r="H1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
@@ -2612,7 +2579,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2">
         <v>29</v>
@@ -2641,7 +2608,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <v>29</v>
@@ -2670,7 +2637,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4">
         <v>29</v>
@@ -2699,7 +2666,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5">
         <v>29</v>

--- a/attendance/attendance.xlsx
+++ b/attendance/attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangzhang/vsCodeProject/contruct_xlsx/attendance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578B3B06-CD50-4F45-A458-D10F229DEC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F23544-F5E9-A14A-A5C3-91ACF0DF41AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="大医院" sheetId="1" r:id="rId1"/>
@@ -1585,7 +1585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD050704-83B8-49E8-9E11-7733F4B5A3A1}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1865,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E74ABF-3D62-4267-8F2A-F98D59CAE123}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>51</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>54</v>
@@ -2018,7 +2018,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>56</v>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>57</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -2125,7 +2125,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
@@ -2177,7 +2177,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>61</v>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
@@ -2229,7 +2229,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>63</v>
@@ -2261,7 +2261,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>65</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>66</v>
@@ -2345,7 +2345,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>68</v>
@@ -2397,7 +2397,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>69</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>71</v>
@@ -2475,7 +2475,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>72</v>
@@ -2501,7 +2501,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>73</v>

--- a/attendance/attendance.xlsx
+++ b/attendance/attendance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangzhang/vsCodeProject/contruct_xlsx/attendance/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_space\construct_xlsx\attendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F23544-F5E9-A14A-A5C3-91ACF0DF41AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8CAF99-6C1F-4A11-861F-6FFFB597AF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="795" windowWidth="15585" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="大医院" sheetId="1" r:id="rId1"/>
@@ -324,7 +324,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -642,18 +642,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="9" width="11.33203125" customWidth="1"/>
+    <col min="6" max="9" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -685,7 +685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -888,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1291,6 +1291,35 @@
         <v>0</v>
       </c>
       <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>16</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>0</v>
       </c>
     </row>
@@ -1303,15 +1332,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37C97C5-30D8-4B13-B965-EE7C945749B4}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1343,7 +1372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1372,7 +1401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1401,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1430,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1459,7 +1488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1488,7 +1517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1517,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1543,35 +1572,6 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9">
-        <v>27</v>
-      </c>
-      <c r="D9">
-        <v>16</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
         <v>0</v>
       </c>
     </row>
@@ -1589,9 +1589,9 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1865,16 +1865,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E74ABF-3D62-4267-8F2A-F98D59CAE123}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="36.1640625" customWidth="1"/>
+    <col min="10" max="10" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2540,9 +2540,9 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>

--- a/attendance/attendance.xlsx
+++ b/attendance/attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_space\construct_xlsx\attendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8720D55-CD66-4968-A6CA-6615EFE6A938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCC790E-12FA-44CF-A5FB-2CB044E10FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11565" yWindow="345" windowWidth="15585" windowHeight="14745" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外派" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="96">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -394,6 +394,10 @@
   </si>
   <si>
     <t>社保扣款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1天夜班</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1944,8 +1948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD050704-83B8-49E8-9E11-7733F4B5A3A1}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2048,6 +2052,9 @@
       <c r="J3">
         <v>0</v>
       </c>
+      <c r="K3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -2080,6 +2087,9 @@
       <c r="J4">
         <v>0</v>
       </c>
+      <c r="K4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -2112,6 +2122,9 @@
       <c r="J5">
         <v>0</v>
       </c>
+      <c r="K5" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -2144,6 +2157,9 @@
       <c r="J6">
         <v>0</v>
       </c>
+      <c r="K6" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -2208,6 +2224,9 @@
       <c r="J8">
         <v>0</v>
       </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -2239,6 +2258,9 @@
       </c>
       <c r="J9">
         <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2252,8 +2274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E74ABF-3D62-4267-8F2A-F98D59CAE123}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/attendance/attendance.xlsx
+++ b/attendance/attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_space\construct_xlsx\attendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCC790E-12FA-44CF-A5FB-2CB044E10FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE13E617-B704-497A-99F0-206F708E401C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外派" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="99">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -398,6 +398,18 @@
   </si>
   <si>
     <t>1天夜班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社保扣款，值班3天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社保扣款，值班7天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -723,20 +735,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29947C1F-D3CA-49C2-BD73-6CDD80E1D975}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="10.375" customWidth="1"/>
-    <col min="9" max="10" width="10.5" customWidth="1"/>
-    <col min="11" max="11" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="7" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="26.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -750,28 +762,22 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="G1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H1" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="I1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -794,19 +800,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
         <v>2527</v>
       </c>
-      <c r="K2" t="s">
+      <c r="I2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -820,28 +820,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
         <v>2527</v>
       </c>
-      <c r="K3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -855,25 +849,19 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
         <v>2527</v>
       </c>
-      <c r="K4" t="s">
-        <v>94</v>
+      <c r="I4" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -885,19 +873,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="10" width="11.375" customWidth="1"/>
-    <col min="11" max="11" width="17.875" customWidth="1"/>
+    <col min="6" max="9" width="11.375" customWidth="1"/>
+    <col min="10" max="10" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -926,15 +914,12 @@
         <v>48</v>
       </c>
       <c r="J1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f>ROW()-1</f>
+        <f t="shared" ref="A2:A23" si="0">ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -961,13 +946,10 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f t="shared" ref="A3:A24" si="0">ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -994,11 +976,8 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1027,11 +1006,8 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1060,11 +1036,8 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1093,11 +1066,8 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1126,11 +1096,8 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1159,11 +1126,8 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1192,11 +1156,8 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1225,11 +1186,8 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1258,11 +1216,8 @@
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1291,11 +1246,8 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1324,11 +1276,8 @@
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1357,11 +1306,8 @@
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1390,11 +1336,8 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1423,11 +1366,8 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1456,11 +1396,8 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1489,11 +1426,8 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1522,11 +1456,8 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1555,11 +1486,8 @@
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1588,11 +1516,8 @@
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1621,11 +1546,8 @@
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1654,44 +1576,8 @@
       <c r="I23">
         <v>750</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="J23" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24">
-        <v>26</v>
-      </c>
-      <c r="D24">
-        <v>26</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1703,15 +1589,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37C97C5-30D8-4B13-B965-EE7C945749B4}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1740,13 +1626,10 @@
         <v>48</v>
       </c>
       <c r="J1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1774,11 +1657,8 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1806,11 +1686,8 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1838,11 +1715,8 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1870,11 +1744,8 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1902,11 +1773,8 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1934,7 +1802,34 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f>ROW()-1</f>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>0</v>
       </c>
     </row>
@@ -1946,15 +1841,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD050704-83B8-49E8-9E11-7733F4B5A3A1}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1983,13 +1878,10 @@
         <v>48</v>
       </c>
       <c r="J1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2017,11 +1909,8 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2049,14 +1938,11 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="J3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2084,14 +1970,11 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="J4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2119,14 +2002,11 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2154,14 +2034,11 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2189,11 +2066,8 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2221,14 +2095,11 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="J8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2256,10 +2127,7 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="J9" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2272,18 +2140,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E74ABF-3D62-4267-8F2A-F98D59CAE123}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="11" width="37.75" customWidth="1"/>
+    <col min="10" max="10" width="37.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2312,13 +2180,10 @@
         <v>48</v>
       </c>
       <c r="J1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2343,11 +2208,8 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2372,14 +2234,11 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="J3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2407,14 +2266,11 @@
       <c r="I4">
         <v>300</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="J4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2439,14 +2295,11 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2474,17 +2327,14 @@
       <c r="I6">
         <v>200</v>
       </c>
-      <c r="J6">
-        <v>0</v>
+      <c r="J6" t="s">
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2512,14 +2362,11 @@
       <c r="I7">
         <v>100</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2544,14 +2391,11 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="J8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2576,11 +2420,8 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2605,11 +2446,8 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2634,11 +2472,8 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2663,11 +2498,8 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2692,11 +2524,8 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2721,14 +2550,11 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="J14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2753,14 +2579,11 @@
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="J15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2785,14 +2608,11 @@
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="J16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2817,11 +2637,8 @@
       <c r="H17">
         <v>0</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2849,14 +2666,11 @@
       <c r="I18">
         <v>100</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="J18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2881,14 +2695,11 @@
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="J19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2913,11 +2724,8 @@
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2942,11 +2750,8 @@
       <c r="H21">
         <v>0</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2971,14 +2776,11 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="J22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3003,11 +2805,8 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3032,14 +2831,11 @@
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="J24" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3064,14 +2860,11 @@
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="J25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3096,10 +2889,7 @@
       <c r="H26">
         <v>0</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="J26" t="s">
         <v>86</v>
       </c>
     </row>
